--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_36ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2002,28 +2002,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.7271416256061</v>
+        <v>497.5345524934047</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.5493422138442</v>
+        <v>680.7487243968029</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.5200716587233</v>
+        <v>615.7790215772068</v>
       </c>
       <c r="AD2" t="n">
-        <v>436727.1416256061</v>
+        <v>497534.5524934047</v>
       </c>
       <c r="AE2" t="n">
-        <v>597549.3422138442</v>
+        <v>680748.724396803</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.615833425181042e-06</v>
+        <v>2.989714885090971e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.403935185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>540520.0716587233</v>
+        <v>615779.0215772068</v>
       </c>
     </row>
     <row r="3">
@@ -2108,28 +2108,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.9728708536388</v>
+        <v>307.6699324537798</v>
       </c>
       <c r="AB3" t="n">
-        <v>354.3381069786703</v>
+        <v>420.9675750227173</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.5205753652818</v>
+        <v>380.7910204942506</v>
       </c>
       <c r="AD3" t="n">
-        <v>258972.8708536388</v>
+        <v>307669.9324537799</v>
       </c>
       <c r="AE3" t="n">
-        <v>354338.1069786703</v>
+        <v>420967.5750227172</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.258816121722515e-06</v>
+        <v>4.179401215840434e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.727430555555556</v>
       </c>
       <c r="AH3" t="n">
-        <v>320520.5753652818</v>
+        <v>380791.0204942506</v>
       </c>
     </row>
     <row r="4">
@@ -2214,28 +2214,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.8562562854566</v>
+        <v>258.3578067804733</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.5535174568733</v>
+        <v>353.4965491790533</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.5827957909166</v>
+        <v>319.7593346609265</v>
       </c>
       <c r="AD4" t="n">
-        <v>221856.2562854566</v>
+        <v>258357.8067804733</v>
       </c>
       <c r="AE4" t="n">
-        <v>303553.5174568733</v>
+        <v>353496.5491790533</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.518046914022499e-06</v>
+        <v>4.659046051957346e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.03587962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>274582.7957909166</v>
+        <v>319759.3346609265</v>
       </c>
     </row>
     <row r="5">
@@ -2320,28 +2320,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>201.9818750522</v>
+        <v>238.568676893234</v>
       </c>
       <c r="AB5" t="n">
-        <v>276.3605122577264</v>
+        <v>326.4201886323841</v>
       </c>
       <c r="AC5" t="n">
-        <v>249.9850528423452</v>
+        <v>295.2671039630185</v>
       </c>
       <c r="AD5" t="n">
-        <v>201981.8750522</v>
+        <v>238568.676893234</v>
       </c>
       <c r="AE5" t="n">
-        <v>276360.5122577265</v>
+        <v>326420.1886323841</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.569409903258598e-06</v>
+        <v>4.754081029615843e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.914351851851852</v>
       </c>
       <c r="AH5" t="n">
-        <v>249985.0528423452</v>
+        <v>295267.1039630185</v>
       </c>
     </row>
   </sheetData>
@@ -2617,28 +2617,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>331.5675676173178</v>
+        <v>378.5371648021662</v>
       </c>
       <c r="AB2" t="n">
-        <v>453.6653737427253</v>
+        <v>517.9312487634172</v>
       </c>
       <c r="AC2" t="n">
-        <v>410.3681871960698</v>
+        <v>468.5006173025093</v>
       </c>
       <c r="AD2" t="n">
-        <v>331567.5676173178</v>
+        <v>378537.1648021662</v>
       </c>
       <c r="AE2" t="n">
-        <v>453665.3737427252</v>
+        <v>517931.2487634172</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.921364313512214e-06</v>
+        <v>3.662416910317419e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.182870370370372</v>
       </c>
       <c r="AH2" t="n">
-        <v>410368.1871960698</v>
+        <v>468500.6173025093</v>
       </c>
     </row>
     <row r="3">
@@ -2723,28 +2723,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>215.0663685269092</v>
+        <v>250.2722535790398</v>
       </c>
       <c r="AB3" t="n">
-        <v>294.2632934769266</v>
+        <v>342.4335385792586</v>
       </c>
       <c r="AC3" t="n">
-        <v>266.1792177487018</v>
+        <v>309.7521622658462</v>
       </c>
       <c r="AD3" t="n">
-        <v>215066.3685269092</v>
+        <v>250272.2535790398</v>
       </c>
       <c r="AE3" t="n">
-        <v>294263.2934769266</v>
+        <v>342433.5385792586</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.522194737466168e-06</v>
+        <v>4.807692425974152e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.232638888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>266179.2177487017</v>
+        <v>309752.1622658462</v>
       </c>
     </row>
     <row r="4">
@@ -2829,28 +2829,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>188.0450101793804</v>
+        <v>234.9291770011054</v>
       </c>
       <c r="AB4" t="n">
-        <v>257.29147888766</v>
+        <v>321.440464316573</v>
       </c>
       <c r="AC4" t="n">
-        <v>232.7359412535554</v>
+        <v>290.7626375468199</v>
       </c>
       <c r="AD4" t="n">
-        <v>188045.0101793804</v>
+        <v>234929.1770011054</v>
       </c>
       <c r="AE4" t="n">
-        <v>257291.47888766</v>
+        <v>321440.464316573</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.646066097138382e-06</v>
+        <v>5.043810354873451e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.940393518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>232735.9412535554</v>
+        <v>290762.6375468199</v>
       </c>
     </row>
   </sheetData>
@@ -3126,28 +3126,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>169.9630152227325</v>
+        <v>201.2680913502842</v>
       </c>
       <c r="AB2" t="n">
-        <v>232.5508956666697</v>
+        <v>275.3838819068512</v>
       </c>
       <c r="AC2" t="n">
-        <v>210.3565645715418</v>
+        <v>249.1016307214478</v>
       </c>
       <c r="AD2" t="n">
-        <v>169963.0152227325</v>
+        <v>201268.0913502842</v>
       </c>
       <c r="AE2" t="n">
-        <v>232550.8956666697</v>
+        <v>275383.8819068512</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.727042922834991e-06</v>
+        <v>5.807887750503746e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.432291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>210356.5645715418</v>
+        <v>249101.6307214478</v>
       </c>
     </row>
   </sheetData>
@@ -3423,28 +3423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.8148539356094</v>
+        <v>243.6166972658386</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.3954983637842</v>
+        <v>333.3271128091194</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.3030157130167</v>
+        <v>301.5148409902573</v>
       </c>
       <c r="AD2" t="n">
-        <v>199814.8539356094</v>
+        <v>243616.6972658386</v>
       </c>
       <c r="AE2" t="n">
-        <v>273395.4983637842</v>
+        <v>333327.1128091194</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.528549695241673e-06</v>
+        <v>5.133830081029825e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.637731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>247303.0157130167</v>
+        <v>301514.8409902573</v>
       </c>
     </row>
     <row r="3">
@@ -3529,28 +3529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.9866283848339</v>
+        <v>212.8167651774139</v>
       </c>
       <c r="AB3" t="n">
-        <v>246.2656454056529</v>
+        <v>291.1852869286532</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.762397844213</v>
+        <v>263.3949718253854</v>
       </c>
       <c r="AD3" t="n">
-        <v>179986.6283848339</v>
+        <v>212816.7651774139</v>
       </c>
       <c r="AE3" t="n">
-        <v>246265.6454056529</v>
+        <v>291185.2869286533</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.733104830227622e-06</v>
+        <v>5.549147726238142e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.140046296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>222762.397844213</v>
+        <v>263394.9718253853</v>
       </c>
     </row>
   </sheetData>
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>164.7329103187314</v>
+        <v>204.8335226521331</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.394835401075</v>
+        <v>280.2622623097661</v>
       </c>
       <c r="AC2" t="n">
-        <v>203.8834686540996</v>
+        <v>253.51442534556</v>
       </c>
       <c r="AD2" t="n">
-        <v>164732.9103187314</v>
+        <v>204833.5226521331</v>
       </c>
       <c r="AE2" t="n">
-        <v>225394.835401075</v>
+        <v>280262.2623097661</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.66005979699359e-06</v>
+        <v>5.923433594275605e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333335</v>
       </c>
       <c r="AH2" t="n">
-        <v>203883.4686540996</v>
+        <v>253514.42534556</v>
       </c>
     </row>
   </sheetData>
@@ -4123,28 +4123,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>352.4735586343554</v>
+        <v>399.8972285987022</v>
       </c>
       <c r="AB2" t="n">
-        <v>482.2698729594665</v>
+        <v>547.1570303893457</v>
       </c>
       <c r="AC2" t="n">
-        <v>436.2427131542321</v>
+        <v>494.9371313487011</v>
       </c>
       <c r="AD2" t="n">
-        <v>352473.5586343554</v>
+        <v>399897.2285987022</v>
       </c>
       <c r="AE2" t="n">
-        <v>482269.8729594665</v>
+        <v>547157.0303893457</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.840679542470751e-06</v>
+        <v>3.480290004480986e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.463541666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>436242.7131542321</v>
+        <v>494937.1313487011</v>
       </c>
     </row>
     <row r="3">
@@ -4229,28 +4229,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>226.5887768186511</v>
+        <v>262.1352164554089</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.0287608344574</v>
+        <v>358.6649677438537</v>
       </c>
       <c r="AC3" t="n">
-        <v>280.4400510286073</v>
+        <v>324.4344866118233</v>
       </c>
       <c r="AD3" t="n">
-        <v>226588.7768186511</v>
+        <v>262135.2164554088</v>
       </c>
       <c r="AE3" t="n">
-        <v>310028.7608344575</v>
+        <v>358664.9677438537</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.449196235629098e-06</v>
+        <v>4.630851259655295e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.359953703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>280440.0510286073</v>
+        <v>324434.4866118233</v>
       </c>
     </row>
     <row r="4">
@@ -4335,28 +4335,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.7471513202543</v>
+        <v>226.3788423030294</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.9886676066556</v>
+        <v>309.7415191685268</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.0802754702481</v>
+        <v>280.1802233041268</v>
       </c>
       <c r="AD4" t="n">
-        <v>190747.1513202543</v>
+        <v>226378.8423030294</v>
       </c>
       <c r="AE4" t="n">
-        <v>260988.6676066556</v>
+        <v>309741.5191685268</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631880463189378e-06</v>
+        <v>4.976263959956696e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.920138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>236080.2754702481</v>
+        <v>280180.2233041268</v>
       </c>
     </row>
   </sheetData>
@@ -4632,28 +4632,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.1192694852214</v>
+        <v>201.5181259481684</v>
       </c>
       <c r="AB2" t="n">
-        <v>235.5011778758299</v>
+        <v>275.7259902744242</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.0252759874078</v>
+        <v>249.4110887465718</v>
       </c>
       <c r="AD2" t="n">
-        <v>172119.2694852214</v>
+        <v>201518.1259481684</v>
       </c>
       <c r="AE2" t="n">
-        <v>235501.1778758299</v>
+        <v>275725.9902744242</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.586427477322266e-06</v>
+        <v>5.929557631099296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.20775462962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>213025.2759874078</v>
+        <v>249411.0887465718</v>
       </c>
     </row>
   </sheetData>
@@ -4929,28 +4929,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.8870932268437</v>
+        <v>308.2976636928795</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.693718712993</v>
+        <v>421.8264645976011</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.3650550323291</v>
+        <v>381.5679388535667</v>
       </c>
       <c r="AD2" t="n">
-        <v>262887.0932268437</v>
+        <v>308297.6636928795</v>
       </c>
       <c r="AE2" t="n">
-        <v>359693.718712993</v>
+        <v>421826.4645976011</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.192086523286175e-06</v>
+        <v>4.296459291149431e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.390046296296297</v>
       </c>
       <c r="AH2" t="n">
-        <v>325365.0550323291</v>
+        <v>381567.9388535667</v>
       </c>
     </row>
     <row r="3">
@@ -5035,28 +5035,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.0698205055813</v>
+        <v>224.1704411595313</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.0619137042939</v>
+        <v>306.7198872962119</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.2419696596203</v>
+        <v>277.4469717368176</v>
       </c>
       <c r="AD3" t="n">
-        <v>190069.8205055813</v>
+        <v>224170.4411595313</v>
       </c>
       <c r="AE3" t="n">
-        <v>260061.9137042939</v>
+        <v>306719.8872962119</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.690611141564224e-06</v>
+        <v>5.273560653396995e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.018518518518519</v>
       </c>
       <c r="AH3" t="n">
-        <v>235241.9696596203</v>
+        <v>277446.9717368176</v>
       </c>
     </row>
     <row r="4">
@@ -5141,28 +5141,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.7131325050437</v>
+        <v>224.8137531589937</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.9421215628803</v>
+        <v>307.6000951547983</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.038171715563</v>
+        <v>278.2431737927603</v>
       </c>
       <c r="AD4" t="n">
-        <v>190713.1325050438</v>
+        <v>224813.7531589937</v>
       </c>
       <c r="AE4" t="n">
-        <v>260942.1215628803</v>
+        <v>307600.0951547983</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.691002975420943e-06</v>
+        <v>5.274328642341048e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.018518518518519</v>
       </c>
       <c r="AH4" t="n">
-        <v>236038.171715563</v>
+        <v>278243.1737927604</v>
       </c>
     </row>
   </sheetData>
@@ -5438,28 +5438,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>300.255543681935</v>
+        <v>346.8390527459533</v>
       </c>
       <c r="AB2" t="n">
-        <v>410.822881205332</v>
+        <v>474.5604934260987</v>
       </c>
       <c r="AC2" t="n">
-        <v>371.6145220166295</v>
+        <v>429.2691059833468</v>
       </c>
       <c r="AD2" t="n">
-        <v>300255.543681935</v>
+        <v>346839.0527459533</v>
       </c>
       <c r="AE2" t="n">
-        <v>410822.881205332</v>
+        <v>474560.4934260987</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.005264382237708e-06</v>
+        <v>3.855528006424962e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.913773148148149</v>
       </c>
       <c r="AH2" t="n">
-        <v>371614.5220166295</v>
+        <v>429269.1059833468</v>
       </c>
     </row>
     <row r="3">
@@ -5544,28 +5544,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>204.8492558230391</v>
+        <v>239.7016362750318</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.2837891282982</v>
+        <v>327.9703536411994</v>
       </c>
       <c r="AC3" t="n">
-        <v>253.5338976747444</v>
+        <v>296.6693233990632</v>
       </c>
       <c r="AD3" t="n">
-        <v>204849.2558230391</v>
+        <v>239701.6362750318</v>
       </c>
       <c r="AE3" t="n">
-        <v>280283.7891282982</v>
+        <v>327970.3536411994</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.592057326430072e-06</v>
+        <v>4.983756608272253e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.122685185185186</v>
       </c>
       <c r="AH3" t="n">
-        <v>253533.8976747444</v>
+        <v>296669.3233990631</v>
       </c>
     </row>
     <row r="4">
@@ -5650,28 +5650,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.0000493598572</v>
+        <v>231.4128767147316</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.1252291601999</v>
+        <v>316.6293071365386</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.9673125527145</v>
+        <v>286.4106504555448</v>
       </c>
       <c r="AD4" t="n">
-        <v>185000.0493598572</v>
+        <v>231412.8767147316</v>
       </c>
       <c r="AE4" t="n">
-        <v>253125.2291601999</v>
+        <v>316629.3071365386</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.664179274426423e-06</v>
+        <v>5.122425699909713e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.95775462962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>228967.3125527145</v>
+        <v>286410.6504555448</v>
       </c>
     </row>
   </sheetData>
@@ -5947,28 +5947,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>410.2545977273615</v>
+        <v>458.6261089933906</v>
       </c>
       <c r="AB2" t="n">
-        <v>561.3284397660543</v>
+        <v>627.5124754807024</v>
       </c>
       <c r="AC2" t="n">
-        <v>507.7560413041946</v>
+        <v>567.6235655401141</v>
       </c>
       <c r="AD2" t="n">
-        <v>410254.5977273615</v>
+        <v>458626.1089933906</v>
       </c>
       <c r="AE2" t="n">
-        <v>561328.4397660543</v>
+        <v>627512.4754807024</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.690264676277771e-06</v>
+        <v>3.148834891373779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>507756.0413041946</v>
+        <v>567623.5655401141</v>
       </c>
     </row>
     <row r="3">
@@ -6053,28 +6053,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>248.0303345498215</v>
+        <v>296.3164154527312</v>
       </c>
       <c r="AB3" t="n">
-        <v>339.3660460569965</v>
+        <v>405.4331921800627</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.977426924655</v>
+        <v>366.7392173474559</v>
       </c>
       <c r="AD3" t="n">
-        <v>248030.3345498215</v>
+        <v>296316.4154527312</v>
       </c>
       <c r="AE3" t="n">
-        <v>339366.0460569965</v>
+        <v>405433.1921800628</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.319753143364713e-06</v>
+        <v>4.321524161107426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.60300925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>306977.426924655</v>
+        <v>366739.2173474559</v>
       </c>
     </row>
     <row r="4">
@@ -6159,28 +6159,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.4870318358773</v>
+        <v>249.6877718842116</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.6834459382121</v>
+        <v>341.6338249388825</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.3726047820965</v>
+        <v>309.0287721729021</v>
       </c>
       <c r="AD4" t="n">
-        <v>201487.0318358773</v>
+        <v>249687.7718842116</v>
       </c>
       <c r="AE4" t="n">
-        <v>275683.4459382121</v>
+        <v>341633.8249388825</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566657037948305e-06</v>
+        <v>4.781487389939125e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.969328703703703</v>
       </c>
       <c r="AH4" t="n">
-        <v>249372.6047820965</v>
+        <v>309028.7721729021</v>
       </c>
     </row>
     <row r="5">
@@ -6265,28 +6265,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.2262336767677</v>
+        <v>234.5047999948758</v>
       </c>
       <c r="AB5" t="n">
-        <v>271.2218780406587</v>
+        <v>320.8598129744578</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.3368426628342</v>
+        <v>290.2374027538467</v>
       </c>
       <c r="AD5" t="n">
-        <v>198226.2336767677</v>
+        <v>234504.7999948758</v>
       </c>
       <c r="AE5" t="n">
-        <v>271221.8780406587</v>
+        <v>320859.8129744578</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.591273313887707e-06</v>
+        <v>4.827345644957723e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.911458333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>245336.8426628342</v>
+        <v>290237.4027538467</v>
       </c>
     </row>
   </sheetData>
@@ -6562,28 +6562,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>216.8812324593303</v>
+        <v>261.2778255611975</v>
       </c>
       <c r="AB2" t="n">
-        <v>296.7464703754098</v>
+        <v>357.4918476969771</v>
       </c>
       <c r="AC2" t="n">
-        <v>268.4254037291553</v>
+        <v>323.3733274957363</v>
       </c>
       <c r="AD2" t="n">
-        <v>216881.2324593303</v>
+        <v>261277.8255611975</v>
       </c>
       <c r="AE2" t="n">
-        <v>296746.4703754098</v>
+        <v>357491.8476969771</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404697464687903e-06</v>
+        <v>4.820209707456404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.892361111111112</v>
       </c>
       <c r="AH2" t="n">
-        <v>268425.4037291553</v>
+        <v>323373.3274957363</v>
       </c>
     </row>
     <row r="3">
@@ -6668,28 +6668,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.5578250923259</v>
+        <v>216.834024213632</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.1519142909204</v>
+        <v>296.6818779709646</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.1823280849936</v>
+        <v>268.3669759331342</v>
       </c>
       <c r="AD3" t="n">
-        <v>183557.8250923259</v>
+        <v>216834.024213632</v>
       </c>
       <c r="AE3" t="n">
-        <v>251151.9142909204</v>
+        <v>296681.8779709646</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.72094828396976e-06</v>
+        <v>5.454133638212198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.090856481481482</v>
       </c>
       <c r="AH3" t="n">
-        <v>227182.3280849936</v>
+        <v>268366.9759331342</v>
       </c>
     </row>
   </sheetData>
@@ -6965,28 +6965,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>173.6455376938591</v>
+        <v>205.4960333684542</v>
       </c>
       <c r="AB2" t="n">
-        <v>237.589485373088</v>
+        <v>281.1687386997462</v>
       </c>
       <c r="AC2" t="n">
-        <v>214.9142783480863</v>
+        <v>254.3343889011283</v>
       </c>
       <c r="AD2" t="n">
-        <v>173645.5376938591</v>
+        <v>205496.0333684543</v>
       </c>
       <c r="AE2" t="n">
-        <v>237589.485373088</v>
+        <v>281168.7386997462</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.728016549835139e-06</v>
+        <v>5.707181226727504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.328125</v>
       </c>
       <c r="AH2" t="n">
-        <v>214914.2783480863</v>
+        <v>254334.3889011283</v>
       </c>
     </row>
     <row r="3">
@@ -7071,28 +7071,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>173.9426346040957</v>
+        <v>205.7931302786908</v>
       </c>
       <c r="AB3" t="n">
-        <v>237.9959864726641</v>
+        <v>281.5752397993224</v>
       </c>
       <c r="AC3" t="n">
-        <v>215.2819835532469</v>
+        <v>254.7020941062889</v>
       </c>
       <c r="AD3" t="n">
-        <v>173942.6346040957</v>
+        <v>205793.1302786908</v>
       </c>
       <c r="AE3" t="n">
-        <v>237995.9864726641</v>
+        <v>281575.2397993224</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.7342805836379e-06</v>
+        <v>5.720285977182508e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.313657407407407</v>
       </c>
       <c r="AH3" t="n">
-        <v>215281.9835532469</v>
+        <v>254702.0941062889</v>
       </c>
     </row>
   </sheetData>
@@ -11917,28 +11917,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>166.9099241040502</v>
+        <v>197.7914205673034</v>
       </c>
       <c r="AB2" t="n">
-        <v>228.3735217052166</v>
+        <v>270.6269475616893</v>
       </c>
       <c r="AC2" t="n">
-        <v>206.5778733179874</v>
+        <v>244.7986915137874</v>
       </c>
       <c r="AD2" t="n">
-        <v>166909.9241040502</v>
+        <v>197791.4205673034</v>
       </c>
       <c r="AE2" t="n">
-        <v>228373.5217052166</v>
+        <v>270626.9475616894</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.707283238087957e-06</v>
+        <v>5.88524328775417e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.597222222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>206577.8733179874</v>
+        <v>244798.6915137874</v>
       </c>
     </row>
   </sheetData>
@@ -12214,28 +12214,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>171.7274528728951</v>
+        <v>209.7769622370568</v>
       </c>
       <c r="AB2" t="n">
-        <v>234.9650771011162</v>
+        <v>287.0260944390179</v>
       </c>
       <c r="AC2" t="n">
-        <v>212.5403399182105</v>
+        <v>259.6327268294962</v>
       </c>
       <c r="AD2" t="n">
-        <v>171727.4528728951</v>
+        <v>209776.9622370568</v>
       </c>
       <c r="AE2" t="n">
-        <v>234965.0771011162</v>
+        <v>287026.0944390179</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.429697124141947e-06</v>
+        <v>5.779100122966072e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.887731481481482</v>
       </c>
       <c r="AH2" t="n">
-        <v>212540.3399182105</v>
+        <v>259632.7268294962</v>
       </c>
     </row>
   </sheetData>
@@ -12511,28 +12511,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>280.8660767553445</v>
+        <v>326.9591019599588</v>
       </c>
       <c r="AB2" t="n">
-        <v>384.2933571534615</v>
+        <v>447.3598677191709</v>
       </c>
       <c r="AC2" t="n">
-        <v>347.6169385058486</v>
+        <v>404.6644698175702</v>
       </c>
       <c r="AD2" t="n">
-        <v>280866.0767553445</v>
+        <v>326959.1019599588</v>
       </c>
       <c r="AE2" t="n">
-        <v>384293.3571534615</v>
+        <v>447359.8677191709</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.097182938523895e-06</v>
+        <v>4.069747481401105e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.641782407407407</v>
       </c>
       <c r="AH2" t="n">
-        <v>347616.9385058486</v>
+        <v>404664.4698175702</v>
       </c>
     </row>
     <row r="3">
@@ -12617,28 +12617,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>194.4562159803062</v>
+        <v>228.9407335377459</v>
       </c>
       <c r="AB3" t="n">
-        <v>266.0635735069203</v>
+        <v>313.2468117785288</v>
       </c>
       <c r="AC3" t="n">
-        <v>240.6708394740683</v>
+        <v>283.3509757071403</v>
       </c>
       <c r="AD3" t="n">
-        <v>194456.2159803062</v>
+        <v>228940.7335377459</v>
       </c>
       <c r="AE3" t="n">
-        <v>266063.5735069203</v>
+        <v>313246.8117785287</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.667842701668987e-06</v>
+        <v>5.177157374517698e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.006944444444446</v>
       </c>
       <c r="AH3" t="n">
-        <v>240670.8394740683</v>
+        <v>283350.9757071403</v>
       </c>
     </row>
     <row r="4">
@@ -12723,28 +12723,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.1571908804883</v>
+        <v>228.0795343759587</v>
       </c>
       <c r="AB4" t="n">
-        <v>249.2355047706648</v>
+        <v>312.0684810919465</v>
       </c>
       <c r="AC4" t="n">
-        <v>225.4488179996529</v>
+        <v>282.2851032474875</v>
       </c>
       <c r="AD4" t="n">
-        <v>182157.1908804883</v>
+        <v>228079.5343759587</v>
       </c>
       <c r="AE4" t="n">
-        <v>249235.5047706648</v>
+        <v>312068.4810919465</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.676096274247963e-06</v>
+        <v>5.193174077495214e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>225448.8179996529</v>
+        <v>282285.1032474876</v>
       </c>
     </row>
   </sheetData>
@@ -13020,28 +13020,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>374.8203874055195</v>
+        <v>434.6692000715702</v>
       </c>
       <c r="AB2" t="n">
-        <v>512.8457899566793</v>
+        <v>594.7335757896385</v>
       </c>
       <c r="AC2" t="n">
-        <v>463.9005075467999</v>
+        <v>537.9730380300908</v>
       </c>
       <c r="AD2" t="n">
-        <v>374820.3874055195</v>
+        <v>434669.2000715702</v>
       </c>
       <c r="AE2" t="n">
-        <v>512845.7899566792</v>
+        <v>594733.5757896386</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.763360671877999e-06</v>
+        <v>3.308756262066863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.758680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>463900.5075467999</v>
+        <v>537973.0380300909</v>
       </c>
     </row>
     <row r="3">
@@ -13126,28 +13126,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.9425393774088</v>
+        <v>272.8177801437646</v>
       </c>
       <c r="AB3" t="n">
-        <v>324.1952355431091</v>
+        <v>373.2813226637106</v>
       </c>
       <c r="AC3" t="n">
-        <v>293.2544972738419</v>
+        <v>337.6558771323121</v>
       </c>
       <c r="AD3" t="n">
-        <v>236942.5393774088</v>
+        <v>272817.7801437646</v>
       </c>
       <c r="AE3" t="n">
-        <v>324195.2355431091</v>
+        <v>373281.3226637106</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.385808039662752e-06</v>
+        <v>4.476711666091736e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.472800925925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>293254.4972738419</v>
+        <v>337655.877132312</v>
       </c>
     </row>
     <row r="4">
@@ -13232,28 +13232,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.6231368994967</v>
+        <v>230.5836290118696</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.2919620725878</v>
+        <v>315.4946938456567</v>
       </c>
       <c r="AC4" t="n">
-        <v>240.877430955574</v>
+        <v>285.3843230647046</v>
       </c>
       <c r="AD4" t="n">
-        <v>194623.1368994967</v>
+        <v>230583.6290118696</v>
       </c>
       <c r="AE4" t="n">
-        <v>266291.9620725878</v>
+        <v>315494.6938456567</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.609197305950309e-06</v>
+        <v>4.89587754945029e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.920138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>240877.430955574</v>
+        <v>285384.3230647046</v>
       </c>
     </row>
     <row r="5">
@@ -13338,28 +13338,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>195.3316451245461</v>
+        <v>231.292137236919</v>
       </c>
       <c r="AB5" t="n">
-        <v>267.2613742832767</v>
+        <v>316.4641060563456</v>
       </c>
       <c r="AC5" t="n">
-        <v>241.7543238254537</v>
+        <v>286.2612159345843</v>
       </c>
       <c r="AD5" t="n">
-        <v>195331.6451245461</v>
+        <v>231292.137236919</v>
       </c>
       <c r="AE5" t="n">
-        <v>267261.3742832767</v>
+        <v>316464.1060563456</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.60684864938719e-06</v>
+        <v>4.89147054852609e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.925925925925926</v>
       </c>
       <c r="AH5" t="n">
-        <v>241754.3238254537</v>
+        <v>286261.2159345843</v>
       </c>
     </row>
   </sheetData>
@@ -13635,28 +13635,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.016286615565</v>
+        <v>238.6466592311392</v>
       </c>
       <c r="AB2" t="n">
-        <v>264.0933986248822</v>
+        <v>326.5268875074439</v>
       </c>
       <c r="AC2" t="n">
-        <v>238.8886953176135</v>
+        <v>295.3636196471953</v>
       </c>
       <c r="AD2" t="n">
-        <v>193016.286615565</v>
+        <v>238646.6592311392</v>
       </c>
       <c r="AE2" t="n">
-        <v>264093.3986248822</v>
+        <v>326526.8875074439</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.124248869481622e-06</v>
+        <v>5.312585214321689e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.343171296296296</v>
       </c>
       <c r="AH2" t="n">
-        <v>238888.6953176135</v>
+        <v>295363.6196471953</v>
       </c>
     </row>
   </sheetData>
@@ -13932,28 +13932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>184.7143045003482</v>
+        <v>217.0708940773559</v>
       </c>
       <c r="AB2" t="n">
-        <v>252.7342604372464</v>
+        <v>297.0059737684724</v>
       </c>
       <c r="AC2" t="n">
-        <v>228.6136573359515</v>
+        <v>268.6601404825993</v>
       </c>
       <c r="AD2" t="n">
-        <v>184714.3045003482</v>
+        <v>217070.8940773559</v>
       </c>
       <c r="AE2" t="n">
-        <v>252734.2604372464</v>
+        <v>297005.9737684724</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.646043742584986e-06</v>
+        <v>5.44895410856499e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.429398148148148</v>
       </c>
       <c r="AH2" t="n">
-        <v>228613.6573359515</v>
+        <v>268660.1404825993</v>
       </c>
     </row>
     <row r="3">
@@ -14038,28 +14038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.6576286995332</v>
+        <v>209.0142182765409</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.7107611711259</v>
+        <v>285.9824745023519</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.6422253682076</v>
+        <v>258.6887085148554</v>
       </c>
       <c r="AD3" t="n">
-        <v>176657.6286995332</v>
+        <v>209014.2182765409</v>
       </c>
       <c r="AE3" t="n">
-        <v>241710.7611711259</v>
+        <v>285982.4745023519</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.738752273623789e-06</v>
+        <v>5.639867252959724e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.21238425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>218642.2253682076</v>
+        <v>258688.7085148554</v>
       </c>
     </row>
   </sheetData>
@@ -14335,28 +14335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>244.8012122704301</v>
+        <v>278.5852237653049</v>
       </c>
       <c r="AB2" t="n">
-        <v>334.9478184955148</v>
+        <v>381.172593468357</v>
       </c>
       <c r="AC2" t="n">
-        <v>302.9808688006183</v>
+        <v>344.7940161268312</v>
       </c>
       <c r="AD2" t="n">
-        <v>244801.2122704301</v>
+        <v>278585.2237653049</v>
       </c>
       <c r="AE2" t="n">
-        <v>334947.8184955147</v>
+        <v>381172.593468357</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.297513476402636e-06</v>
+        <v>4.551797196055831e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.12962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>302980.8688006183</v>
+        <v>344794.0161268312</v>
       </c>
     </row>
     <row r="3">
@@ -14441,28 +14441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>186.7517483614187</v>
+        <v>220.4504190017183</v>
       </c>
       <c r="AB3" t="n">
-        <v>255.521981013641</v>
+        <v>301.6299888640999</v>
       </c>
       <c r="AC3" t="n">
-        <v>231.1353217731263</v>
+        <v>272.8428460673475</v>
       </c>
       <c r="AD3" t="n">
-        <v>186751.7483614187</v>
+        <v>220450.4190017183</v>
       </c>
       <c r="AE3" t="n">
-        <v>255521.981013641</v>
+        <v>301629.9888640998</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.704355387823165e-06</v>
+        <v>5.357825926969541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.05613425925926</v>
       </c>
       <c r="AH3" t="n">
-        <v>231135.3217731263</v>
+        <v>272842.8460673474</v>
       </c>
     </row>
   </sheetData>
